--- a/Docs/08-Prueba/Modulo Importacion de Datos.xlsx
+++ b/Docs/08-Prueba/Modulo Importacion de Datos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="345" windowWidth="18675" windowHeight="8220"/>
+    <workbookView xWindow="360" yWindow="345" windowWidth="18675" windowHeight="8220" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="US_140" sheetId="1" r:id="rId1"/>
@@ -346,6 +346,21 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -355,12 +370,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -378,15 +387,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -692,7 +692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -706,14 +706,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -768,46 +768,46 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="42.75" thickBot="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="18"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="5">
         <v>2</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="10" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1">
       <c r="A6" s="3"/>
@@ -847,14 +847,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -909,13 +909,13 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="22" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="5">
@@ -927,17 +927,17 @@
       <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="74.25" thickBot="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="20"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="5">
         <v>2</v>
       </c>
@@ -947,8 +947,8 @@
       <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1">
       <c r="A6" s="3"/>
@@ -989,16 +989,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1050,11 +1050,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="21" customFormat="1" ht="53.25" thickBot="1">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:8" s="12" customFormat="1" ht="53.25" thickBot="1">
+      <c r="A4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -1063,34 +1063,34 @@
       <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="42.75" thickBot="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="8"/>
       <c r="D5" s="5">
         <v>2</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="10" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1">
       <c r="A6" s="3"/>
@@ -1129,14 +1129,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -1191,10 +1191,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1209,16 +1209,16 @@
       <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="8"/>
       <c r="D5" s="5">
         <v>2</v>
@@ -1229,8 +1229,8 @@
       <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1">
       <c r="A6" s="3"/>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1269,16 +1269,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1331,13 +1331,13 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="126.75" customHeight="1" thickBot="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="22" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="5">
@@ -1349,17 +1349,17 @@
       <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="42.75" thickBot="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="20"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="5">
         <v>2</v>
       </c>
@@ -1369,8 +1369,8 @@
       <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1">
       <c r="A6" s="3"/>
@@ -1406,14 +1406,14 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -1468,13 +1468,13 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="137.25" customHeight="1" thickBot="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="22" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="5">
@@ -1486,17 +1486,17 @@
       <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="84.75" thickBot="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="20"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="5">
         <v>2</v>
       </c>
@@ -1506,8 +1506,8 @@
       <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1">
       <c r="A6" s="3"/>
@@ -1542,19 +1542,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="24.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="14" customWidth="1"/>
     <col min="4" max="4" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -1608,14 +1608,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="147.75" thickBot="1">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:8" ht="63.75" thickBot="1">
+      <c r="A4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="5">
@@ -1627,17 +1627,17 @@
       <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="95.25" thickBot="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="22"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="5">
         <v>2</v>
       </c>
@@ -1647,8 +1647,8 @@
       <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1">
       <c r="A6" s="3"/>
@@ -1676,8 +1676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1686,14 +1686,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -1748,13 +1748,13 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="74.25" customHeight="1" thickBot="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="20" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="5">
@@ -1766,17 +1766,17 @@
       <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="84.75" thickBot="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="18"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="5">
         <v>2</v>
       </c>
@@ -1786,8 +1786,8 @@
       <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1">
       <c r="A6" s="3"/>
